--- a/biology/Botanique/Forêt_de_nuage/Forêt_de_nuage.xlsx
+++ b/biology/Botanique/Forêt_de_nuage/Forêt_de_nuage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_nuage</t>
+          <t>Forêt_de_nuage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de nuage est un type de forêt humide qu'on trouve généralement en milieu tropical de montagne, entre 1 000 et 3 000 mètres d'altitude, portant également le nom de forêt nébuleuse, forêt orophile (« aimant la montagne »), nebelwald (nom allemand) ou forêt brumeuse (expression historiquement employée)[1]. Le terme forêt de nuage vient de l'anglais cloud forest du fait que ces forêts baignent dans un brume quasi-permanente.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de nuage est un type de forêt humide qu'on trouve généralement en milieu tropical de montagne, entre 1 000 et 3 000 mètres d'altitude, portant également le nom de forêt nébuleuse, forêt orophile (« aimant la montagne »), nebelwald (nom allemand) ou forêt brumeuse (expression historiquement employée). Le terme forêt de nuage vient de l'anglais cloud forest du fait que ces forêts baignent dans un brume quasi-permanente.
 Les forêts de nuage existent aussi en zone tempérée, mais y sont plus rares et moins étendues.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_nuage</t>
+          <t>Forêt_de_nuage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La « forêt de nuage » se caractérise par :
 de fortes précipitations, largement supérieures à celle des forêts ombrophiles de plaine (de 2 000 à 8 000 mm annuels selon l'altitude) ;
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_nuage</t>
+          <t>Forêt_de_nuage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve de la « forêt de nuage » quasiment dans tous les pays tropicaux dotés de montagnes dépassant les 1 000 m d'altitude, avec une forte humidité. Cependant, certains pays possèdent de grands ensembles de « forêts de nuage » :
 Amérique :
@@ -580,7 +596,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_nuage</t>
+          <t>Forêt_de_nuage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,11 +614,13 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces écosystèmes, à peine connus, relativement rares à l'échelle de la planète, sont déjà menacés par : 
 l'humidité permanente est propice aux infections bactériennes fongiques et le système immunitaire des espèces vivant dans les brumes de ces forêts peut être plus facilement affecté par des microbes introduits, et par certains polluants que l'atmosphère véhicule à grande distance (pesticides, acides ou certains perturbateurs endocriniens en particulier). Un constat partagé est notamment que les amphibiens régressent rapidement sur toute la planète, y compris dans les forêts tropicales les plus reculées. L'atmosphère semble donc être dans ce cas un vecteur possible de polluants et pathogènes.
-En Amérique du Sud, des espèces autrefois courantes telles que le crapaud doré (Incilius periglenes) ou la plus grande vipère du monde[2] y ont respectivement disparu et presque disparu en quelques décennies, dans des zones pourtant très isolées. Les espèces animales qui vivent dans ces milieux respirent souvent beaucoup par la peau et certains polluants de l'air peuvent les affecter.
+En Amérique du Sud, des espèces autrefois courantes telles que le crapaud doré (Incilius periglenes) ou la plus grande vipère du monde y ont respectivement disparu et presque disparu en quelques décennies, dans des zones pourtant très isolées. Les espèces animales qui vivent dans ces milieux respirent souvent beaucoup par la peau et certains polluants de l'air peuvent les affecter.
 Le dérèglement climatique pourrait également les affecter, de même que le trou de la couche d'ozone de l'hémisphère sud, responsable d'une augmentation des taux d'UV en Amérique de sud, qui peut affecter les peaux et cuticules des espèces qui y sont exposées, mais qui peuvent aussi augmenter la production de photo-oxydants, tels que l'ozone troposphérique à partir de précurseurs émis par les arbres et leur flore épiphyte.
 Certaines parties de la « forêt de nuage » sont protégées par des réserves naturelles aménagées pour un tourisme scientifique, à destination de parataxonomistes, de naturalistes amateurs ou d'« amateurs éclairés ».
 </t>
